--- a/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
+++ b/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Subscription.filterBy` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Subscription.filterBy` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Subscription</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.resourceType` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.resourceType` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy.resourceType` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:resourceType.id</t>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.filterParameter` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.filterParameter` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy.filterParameter` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:filterParameter.id</t>
@@ -452,7 +452,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.comparator` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.comparator` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy.comparator` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -496,7 +496,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.modifier` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.modifier` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy.modifier` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:modifier.id</t>
@@ -530,7 +530,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.value` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.value` is mapped to FHIR R4 structure `Subscription`, but has no target element specified.</t>
+Element `Subscription.filterBy.value` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -892,7 +892,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="129.0546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="137.765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
+++ b/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="177">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Subscription.filterBy` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Subscription.filterBy` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.resourceType` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.resourceType` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy.resourceType` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:resourceType.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.resourceType</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -421,7 +424,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.filterParameter` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.filterParameter` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy.filterParameter` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:filterParameter.id</t>
@@ -433,6 +436,9 @@
     <t>Extension.extension:filterParameter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.filterParameter</t>
+  </si>
+  <si>
     <t>Extension.extension:filterParameter.value[x]</t>
   </si>
   <si>
@@ -452,7 +458,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.comparator` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.comparator` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy.comparator` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -462,6 +468,9 @@
   </si>
   <si>
     <t>Extension.extension:comparator.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.comparator</t>
   </si>
   <si>
     <t>Extension.extension:comparator.value[x]</t>
@@ -496,7 +505,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.modifier` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.modifier` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy.modifier` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:modifier.id</t>
@@ -508,6 +517,9 @@
     <t>Extension.extension:modifier.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.modifier</t>
+  </si>
+  <si>
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
@@ -530,7 +542,7 @@
   </si>
   <si>
     <t>Element `Subscription.filterBy.value` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.value` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.filterBy.value` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -540,6 +552,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -892,7 +907,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="137.765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.77734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1698,7 +1713,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1740,7 +1755,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1755,15 +1770,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1843,7 +1858,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1855,21 +1870,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1894,14 +1909,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1970,7 +1985,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2073,7 +2088,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2178,7 +2193,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2221,7 +2236,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2263,7 +2278,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2278,15 +2293,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2312,10 +2327,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2366,7 +2381,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2378,21 +2393,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2417,16 +2432,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2495,7 +2510,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2598,7 +2613,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2703,7 +2718,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2746,7 +2761,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2788,7 +2803,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2803,15 +2818,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2834,16 +2849,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2869,13 +2884,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2893,7 +2908,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2905,21 +2920,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2944,16 +2959,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3022,7 +3037,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3125,7 +3140,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3230,7 +3245,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3273,7 +3288,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3315,7 +3330,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3330,15 +3345,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3361,16 +3376,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3396,13 +3411,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3420,7 +3435,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3432,21 +3447,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3471,14 +3486,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3547,7 +3562,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3650,7 +3665,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3798,7 +3813,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3840,7 +3855,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3855,15 +3870,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3889,10 +3904,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3943,7 +3958,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3955,18 +3970,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4048,7 +4063,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -4063,15 +4078,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4094,13 +4109,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4151,7 +4166,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4163,10 +4178,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
+++ b/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -480,15 +480,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Search Comparator Codes applied to this filter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-comparator-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:modifier</t>
   </si>
   <si>
@@ -523,10 +514,13 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>Search Modifier Code applied to this filter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-modifier-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:value</t>
@@ -917,8 +911,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="38.45703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.0078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="34.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.51171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2884,13 +2878,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2928,13 +2922,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2959,16 +2953,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3037,7 +3031,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3140,7 +3134,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3245,7 +3239,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3288,7 +3282,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3350,7 +3344,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3379,13 +3373,13 @@
         <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3411,13 +3405,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3455,13 +3449,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3486,14 +3480,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3562,7 +3556,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3665,7 +3659,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3770,7 +3764,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3813,7 +3807,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3875,7 +3869,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3904,10 +3898,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4109,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>

--- a/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
+++ b/StructureDefinition-ext-R5-Subscription.filterBy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>A resource listed in the `SubscriptionTopic` this `Subscription` references (`SubscriptionTopic.canFilterBy.resource`). This element can be used to differentiate filters for topics that include more than one resource type.</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy.resourceType` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.resourceType` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy.resourceType` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:resourceType.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.resourceType</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -402,6 +398,15 @@
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A type of resource, or a Reference (from all versions)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-subscription-types-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -423,8 +428,7 @@
     <t>The filter as defined in the `SubscriptionTopic.canFilterBy.filterParameter` element.</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy.filterParameter` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.filterParameter` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy.filterParameter` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:filterParameter.id</t>
@@ -436,9 +440,6 @@
     <t>Extension.extension:filterParameter.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.filterParameter</t>
-  </si>
-  <si>
     <t>Extension.extension:filterParameter.value[x]</t>
   </si>
   <si>
@@ -457,8 +458,7 @@
     <t>Must be a comparator allowed by the SubscriptionTopic relevant to this Subscription filter.</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy.comparator` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.comparator` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy.comparator` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t>Extension.extension:comparator.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.comparator</t>
   </si>
   <si>
     <t>Extension.extension:comparator.value[x]</t>
@@ -480,6 +477,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Search Comparator Codes applied to this filter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/search-comparator|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:modifier</t>
   </si>
   <si>
@@ -495,8 +501,7 @@
     <t>Must be a modifier allowed by the SubscriptionTopic relevant to this Subscription filter.</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy.modifier` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.modifier` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy.modifier` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:modifier.id</t>
@@ -508,19 +513,13 @@
     <t>Extension.extension:modifier.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.modifier</t>
-  </si>
-  <si>
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Search Modifier Code applied to this filter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-search-modifier-code-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:value</t>
@@ -535,8 +534,7 @@
     <t>The literal value or resource path as is legal in search - for example, `Patient/123` or `le1950`.</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy.value` is part of an existing definition because parent element `Subscription.filterBy` requires a cross-version extension.
-Element `Subscription.filterBy.value` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy.value` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -546,9 +544,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -911,8 +906,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.92578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1707,72 +1702,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1828,13 +1823,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1852,7 +1847,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1864,21 +1859,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1903,14 +1898,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1979,7 +1974,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2082,7 +2077,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2187,7 +2182,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2230,7 +2225,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2272,30 +2267,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2321,10 +2316,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2375,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2387,21 +2382,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2426,16 +2421,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2504,7 +2499,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2607,7 +2602,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2712,7 +2707,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2755,7 +2750,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2797,22 +2792,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -2820,7 +2815,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2846,13 +2841,13 @@
         <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2878,13 +2873,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2902,7 +2897,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2914,21 +2909,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2953,16 +2948,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3031,7 +3026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3134,7 +3129,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3239,7 +3234,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3282,7 +3277,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3324,30 +3319,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3373,13 +3368,13 @@
         <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3405,13 +3400,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3429,7 +3424,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3441,21 +3436,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3480,14 +3475,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3556,7 +3551,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3659,7 +3654,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3764,7 +3759,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3807,7 +3802,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3849,22 +3844,22 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -3872,7 +3867,7 @@
         <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3898,10 +3893,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3952,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3964,18 +3959,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4057,30 +4052,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4160,7 +4155,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4172,10 +4167,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
